--- a/biology/Botanique/Allium_glandulosum/Allium_glandulosum.xlsx
+++ b/biology/Botanique/Allium_glandulosum/Allium_glandulosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium glandulosum, est une espèce de plante bulbeuse vivace du genre Allium, appartenant à la famille des amaryllidaceae, de l'ordre des Asparagales.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante fait des petits tubercules. Les feuilles sont longues, vert foncé. De petits tiges portent les fleurs rouge-pourpre avec des bords blancs, parfois blancs avec du bleu[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante fait des petits tubercules. Les feuilles sont longues, vert foncé. De petits tiges portent les fleurs rouge-pourpre avec des bords blancs, parfois blancs avec du bleu.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire du Mexique, Allium glandulum se développe dans des climats chauds et semi-chauds, à une altitude de 200 et 700 mètres. Elle pousse naturellement au Mexique, au Guatemala et au Honduras ainsi que dans les États de l'Arizona, du Nouveau-Mexique et du Texas, aux États-Unis[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Mexique, Allium glandulum se développe dans des climats chauds et semi-chauds, à une altitude de 200 et 700 mètres. Elle pousse naturellement au Mexique, au Guatemala et au Honduras ainsi que dans les États de l'Arizona, du Nouveau-Mexique et du Texas, aux États-Unis.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Utilisation et propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante cultivée sur les terres agricoles et dans les jardins familiaux. 
-Dans l'État d'Hidalgo, Allium glandulum est utilisé pour soigner le rhume, traiter la toux chronique, la circulation sanguine et la tuberculose. À Oaxaca, il est utilisé pour abaisser la fièvre[3]
+Dans l'État d'Hidalgo, Allium glandulum est utilisé pour soigner le rhume, traiter la toux chronique, la circulation sanguine et la tuberculose. À Oaxaca, il est utilisé pour abaisser la fièvre
 </t>
         </is>
       </c>
